--- a/new_modules/Summary_2023-06-06_L2A.xlsx
+++ b/new_modules/Summary_2023-06-06_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1273.898071289062</v>
+        <v>1273.6533203125</v>
       </c>
       <c r="C2">
-        <v>0.9557</v>
+        <v>0.9555</v>
       </c>
       <c r="D2">
-        <v>0.9143999814987183</v>
+        <v>0.9143000245094299</v>
       </c>
       <c r="E2">
-        <v>1.505200028419495</v>
+        <v>1.504899978637695</v>
       </c>
       <c r="F2">
-        <v>0.7138000130653381</v>
+        <v>0.713699996471405</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.9278999999999999</v>
+        <v>0.9263</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1190.23779296875</v>
+        <v>1190.009155273438</v>
       </c>
       <c r="C3">
-        <v>0.9522</v>
+        <v>0.952</v>
       </c>
       <c r="D3">
-        <v>0.9245</v>
+        <v>0.9243</v>
       </c>
       <c r="E3">
-        <v>1.852100014686584</v>
+        <v>1.851799964904785</v>
       </c>
       <c r="F3">
-        <v>0.7567999958992004</v>
+        <v>0.7566999793052673</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>1.0172</v>
+        <v>1.0156</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>712.1597900390625</v>
+        <v>712.0230102539062</v>
       </c>
       <c r="C4">
-        <v>0.832</v>
+        <v>0.8318</v>
       </c>
       <c r="D4">
-        <v>0.8243</v>
+        <v>0.8242</v>
       </c>
       <c r="E4">
-        <v>1.070500016212463</v>
+        <v>1.070299983024597</v>
       </c>
       <c r="F4">
-        <v>0.7006999850273132</v>
+        <v>0.7006000280380249</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>0.1298</v>
+        <v>0.1284</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>724.5404052734375</v>
+        <v>724.401123046875</v>
       </c>
       <c r="C5">
-        <v>0.7643</v>
+        <v>0.7641</v>
       </c>
       <c r="D5">
-        <v>0.7578</v>
+        <v>0.7577</v>
       </c>
       <c r="E5">
-        <v>1.191900014877319</v>
+        <v>1.19159996509552</v>
       </c>
       <c r="F5">
-        <v>0.6707000136375427</v>
+        <v>0.6705999970436096</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>-0.4595</v>
+        <v>-0.4607</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1158.442138671875</v>
+        <v>1158.219482421875</v>
       </c>
       <c r="C6">
-        <v>0.9165</v>
+        <v>0.9163</v>
       </c>
       <c r="D6">
-        <v>0.9141</v>
+        <v>0.9139</v>
       </c>
       <c r="E6">
-        <v>1.238299965858459</v>
+        <v>1.238100051879883</v>
       </c>
       <c r="F6">
-        <v>0.7196999788284302</v>
+        <v>0.7195000052452087</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.9246</v>
+        <v>0.9231</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>897.9688720703125</v>
+        <v>897.79638671875</v>
       </c>
       <c r="C7">
-        <v>0.9043</v>
+        <v>0.9041</v>
       </c>
       <c r="D7">
-        <v>0.8967000246047974</v>
+        <v>0.8964999914169312</v>
       </c>
       <c r="E7">
-        <v>1.22599995136261</v>
+        <v>1.225800037384033</v>
       </c>
       <c r="F7">
-        <v>0.7688999772071838</v>
+        <v>0.7687000036239624</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.7707000000000001</v>
+        <v>0.7692</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>1002.153686523438</v>
+        <v>1001.961303710938</v>
       </c>
       <c r="C8">
-        <v>0.898</v>
+        <v>0.8978</v>
       </c>
       <c r="D8">
-        <v>0.8873</v>
+        <v>0.8872</v>
       </c>
       <c r="E8">
-        <v>1.255800008773804</v>
+        <v>1.255599975585938</v>
       </c>
       <c r="F8">
-        <v>0.7870000004768372</v>
+        <v>0.7868000268936157</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.6877</v>
+        <v>0.6862</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>6959.40087890625</v>
+        <v>6958.06396484375</v>
       </c>
       <c r="C9">
-        <v>0.8967000000000001</v>
+        <v>0.8966</v>
       </c>
       <c r="D9">
-        <v>0.885</v>
+        <v>0.8848</v>
       </c>
       <c r="E9">
-        <v>1.852100014686584</v>
+        <v>1.851799964904785</v>
       </c>
       <c r="F9">
-        <v>0.6707000136375427</v>
+        <v>0.6705999970436096</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>3.9984</v>
+        <v>3.9881</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2023-06-06_L2A.xlsx
+++ b/new_modules/Summary_2023-06-06_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1273.6533203125</v>
+        <v>1245.60595703125</v>
       </c>
       <c r="C2">
-        <v>0.9555</v>
+        <v>0.9344</v>
       </c>
       <c r="D2">
-        <v>0.9143000245094299</v>
+        <v>0.9050999879837036</v>
       </c>
       <c r="E2">
-        <v>1.504899978637695</v>
+        <v>1.166499972343445</v>
       </c>
       <c r="F2">
-        <v>0.713699996471405</v>
+        <v>0.8461999893188477</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.9263</v>
+        <v>0.8451</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1190.009155273438</v>
+        <v>1133.99609375</v>
       </c>
       <c r="C3">
-        <v>0.952</v>
+        <v>0.9072</v>
       </c>
       <c r="D3">
-        <v>0.9243</v>
+        <v>0.8989</v>
       </c>
       <c r="E3">
-        <v>1.851799964904785</v>
+        <v>1.233299970626831</v>
       </c>
       <c r="F3">
-        <v>0.7566999793052673</v>
+        <v>0.8403000235557556</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>1.0156</v>
+        <v>0.7897999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>712.0230102539062</v>
+        <v>762.0167846679688</v>
       </c>
       <c r="C4">
-        <v>0.8318</v>
+        <v>0.8902</v>
       </c>
       <c r="D4">
-        <v>0.8242</v>
+        <v>0.8903</v>
       </c>
       <c r="E4">
-        <v>1.070299983024597</v>
+        <v>0.9365000128746033</v>
       </c>
       <c r="F4">
-        <v>0.7006000280380249</v>
+        <v>0.8271999955177307</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>0.1284</v>
+        <v>0.7144</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>724.401123046875</v>
+        <v>848.780029296875</v>
       </c>
       <c r="C5">
-        <v>0.7641</v>
+        <v>0.8953</v>
       </c>
       <c r="D5">
-        <v>0.7577</v>
+        <v>0.8949</v>
       </c>
       <c r="E5">
-        <v>1.19159996509552</v>
+        <v>1.111899971961975</v>
       </c>
       <c r="F5">
-        <v>0.6705999970436096</v>
+        <v>0.8492000102996826</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>-0.4607</v>
+        <v>0.7547</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1158.219482421875</v>
+        <v>1184.694091796875</v>
       </c>
       <c r="C6">
-        <v>0.9163</v>
+        <v>0.9373</v>
       </c>
       <c r="D6">
-        <v>0.9139</v>
+        <v>0.9281</v>
       </c>
       <c r="E6">
-        <v>1.238100051879883</v>
+        <v>1.168300032615662</v>
       </c>
       <c r="F6">
-        <v>0.7195000052452087</v>
+        <v>0.8271999955177307</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.9231</v>
+        <v>1.0485</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>897.79638671875</v>
+        <v>927.5018920898438</v>
       </c>
       <c r="C7">
-        <v>0.9041</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="D7">
-        <v>0.8964999914169312</v>
+        <v>0.9291999936103821</v>
       </c>
       <c r="E7">
-        <v>1.225800037384033</v>
+        <v>1.074300050735474</v>
       </c>
       <c r="F7">
-        <v>0.7687000036239624</v>
+        <v>0.885200023651123</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.7692</v>
+        <v>1.0589</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>1001.961303710938</v>
+        <v>1036.651733398438</v>
       </c>
       <c r="C8">
-        <v>0.8978</v>
+        <v>0.9288999999999999</v>
       </c>
       <c r="D8">
-        <v>0.8872</v>
+        <v>0.9249000000000001</v>
       </c>
       <c r="E8">
-        <v>1.255599975585938</v>
+        <v>1.100200057029724</v>
       </c>
       <c r="F8">
-        <v>0.7868000268936157</v>
+        <v>0.8867999911308289</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.6862</v>
+        <v>1.021</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>6958.06396484375</v>
+        <v>7139.24658203125</v>
       </c>
       <c r="C9">
-        <v>0.8966</v>
+        <v>0.92</v>
       </c>
       <c r="D9">
-        <v>0.8848</v>
+        <v>0.9121</v>
       </c>
       <c r="E9">
-        <v>1.851799964904785</v>
+        <v>1.233299970626831</v>
       </c>
       <c r="F9">
-        <v>0.6705999970436096</v>
+        <v>0.8271999955177307</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>3.9881</v>
+        <v>6.232399999999999</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2023-06-06_L2A.xlsx
+++ b/new_modules/Summary_2023-06-06_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1245.60595703125</v>
+        <v>1273.6533203125</v>
       </c>
       <c r="C2">
-        <v>0.9344</v>
+        <v>0.9555</v>
       </c>
       <c r="D2">
-        <v>0.9050999879837036</v>
+        <v>0.9143000245094299</v>
       </c>
       <c r="E2">
-        <v>1.166499972343445</v>
+        <v>1.504899978637695</v>
       </c>
       <c r="F2">
-        <v>0.8461999893188477</v>
+        <v>0.713699996471405</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.8451</v>
+        <v>0.9263</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1133.99609375</v>
+        <v>1190.009155273438</v>
       </c>
       <c r="C3">
-        <v>0.9072</v>
+        <v>0.952</v>
       </c>
       <c r="D3">
-        <v>0.8989</v>
+        <v>0.9243</v>
       </c>
       <c r="E3">
-        <v>1.233299970626831</v>
+        <v>1.851799964904785</v>
       </c>
       <c r="F3">
-        <v>0.8403000235557556</v>
+        <v>0.7566999793052673</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>0.7897999999999999</v>
+        <v>1.0156</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>762.0167846679688</v>
+        <v>712.0230102539062</v>
       </c>
       <c r="C4">
-        <v>0.8902</v>
+        <v>0.8318</v>
       </c>
       <c r="D4">
-        <v>0.8903</v>
+        <v>0.8242</v>
       </c>
       <c r="E4">
-        <v>0.9365000128746033</v>
+        <v>1.070299983024597</v>
       </c>
       <c r="F4">
-        <v>0.8271999955177307</v>
+        <v>0.7006000280380249</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>0.7144</v>
+        <v>0.1284</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>848.780029296875</v>
+        <v>724.401123046875</v>
       </c>
       <c r="C5">
-        <v>0.8953</v>
+        <v>0.7641</v>
       </c>
       <c r="D5">
-        <v>0.8949</v>
+        <v>0.7577</v>
       </c>
       <c r="E5">
-        <v>1.111899971961975</v>
+        <v>1.19159996509552</v>
       </c>
       <c r="F5">
-        <v>0.8492000102996826</v>
+        <v>0.6705999970436096</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>0.7547</v>
+        <v>-0.4607</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1184.694091796875</v>
+        <v>1158.219482421875</v>
       </c>
       <c r="C6">
-        <v>0.9373</v>
+        <v>0.9163</v>
       </c>
       <c r="D6">
-        <v>0.9281</v>
+        <v>0.9139</v>
       </c>
       <c r="E6">
-        <v>1.168300032615662</v>
+        <v>1.238100051879883</v>
       </c>
       <c r="F6">
-        <v>0.8271999955177307</v>
+        <v>0.7195000052452087</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>1.0485</v>
+        <v>0.9231</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>927.5018920898438</v>
+        <v>897.79638671875</v>
       </c>
       <c r="C7">
-        <v>0.9340000000000001</v>
+        <v>0.9041</v>
       </c>
       <c r="D7">
-        <v>0.9291999936103821</v>
+        <v>0.8964999914169312</v>
       </c>
       <c r="E7">
-        <v>1.074300050735474</v>
+        <v>1.225800037384033</v>
       </c>
       <c r="F7">
-        <v>0.885200023651123</v>
+        <v>0.7687000036239624</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>1.0589</v>
+        <v>0.7692</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>1036.651733398438</v>
+        <v>1001.961303710938</v>
       </c>
       <c r="C8">
-        <v>0.9288999999999999</v>
+        <v>0.8978</v>
       </c>
       <c r="D8">
-        <v>0.9249000000000001</v>
+        <v>0.8872</v>
       </c>
       <c r="E8">
-        <v>1.100200057029724</v>
+        <v>1.255599975585938</v>
       </c>
       <c r="F8">
-        <v>0.8867999911308289</v>
+        <v>0.7868000268936157</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>1.021</v>
+        <v>0.6862</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>7139.24658203125</v>
+        <v>6958.06396484375</v>
       </c>
       <c r="C9">
-        <v>0.92</v>
+        <v>0.8966</v>
       </c>
       <c r="D9">
-        <v>0.9121</v>
+        <v>0.8848</v>
       </c>
       <c r="E9">
-        <v>1.233299970626831</v>
+        <v>1.851799964904785</v>
       </c>
       <c r="F9">
-        <v>0.8271999955177307</v>
+        <v>0.6705999970436096</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>6.232399999999999</v>
+        <v>3.9881</v>
       </c>
     </row>
   </sheetData>
